--- a/biology/Zoologie/Ectophylla_alba/Ectophylla_alba.xlsx
+++ b/biology/Zoologie/Ectophylla_alba/Ectophylla_alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chauve-souris blanche (Ectophylla alba), unique représentant du genre Ectophylla, est une espèce de chauves-souris de la famille des Phyllostomidae, qui vit dans la forêt tropicale humide, en Amérique centrale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite chauve-souris qui mesure entre 2,5 et 5 cm de longueur. Ectophylla alba se reconnaît surtout pour son pelage blanc. La queue, courte, ne dépasse pas de l'uropatagium. La face, les oreilles et quelques parties de leurs bras et ailes sont d'une couleur jaune/orange. Les yeux et les ailes sont noires.
 </t>
@@ -544,12 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Contrairement à beaucoup d'autres espèces de chauves-souris, celles-ci sont des frugivores, elles se nourrissent exclusivement de fruits et de plantes.
-Reproduction
-La femelle chauve-souris blanche donne naissance, comme la plupart des chauves-souris, à un seul petit (les naissances n'ont jamais lieu pendant la saison des pluies).
-Comportement
-Pour s'abriter, elles coupent des feuilles de heliconia en forme de V pour se créer des "tentes" qui peuvent abriter une à douze de ces chauves-souris. Lorsqu'elles sont plusieurs, elles se tiennent toutes collées les unes aux autres au centre de la feuille. Cela leur permet d'être protégées de la pluie, du soleil ou des prédateurs. Comme les tiges et les feuilles de Heliconia ne sont pas très solides, si un prédateur approche et frôle la plante, celle-ci vibre, ce qui sert de signal d'alarme aux chauves-souris pour s'envoler et se mettre en sécurité.
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à beaucoup d'autres espèces de chauves-souris, celles-ci sont des frugivores, elles se nourrissent exclusivement de fruits et de plantes.
 </t>
         </is>
       </c>
@@ -575,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Écologie et comportement</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce de chauve-souris vit en Amérique centrale (Honduras, Costa Rica, Nicaragua et ouest de Panama)[1].
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle chauve-souris blanche donne naissance, comme la plupart des chauves-souris, à un seul petit (les naissances n'ont jamais lieu pendant la saison des pluies).
 </t>
         </is>
       </c>
@@ -606,10 +627,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour s'abriter, elles coupent des feuilles de heliconia en forme de V pour se créer des "tentes" qui peuvent abriter une à douze de ces chauves-souris. Lorsqu'elles sont plusieurs, elles se tiennent toutes collées les unes aux autres au centre de la feuille. Cela leur permet d'être protégées de la pluie, du soleil ou des prédateurs. Comme les tiges et les feuilles de Heliconia ne sont pas très solides, si un prédateur approche et frôle la plante, celle-ci vibre, ce qui sert de signal d'alarme aux chauves-souris pour s'envoler et se mettre en sécurité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ectophylla_alba</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ectophylla_alba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce de chauve-souris vit en Amérique centrale (Honduras, Costa Rica, Nicaragua et ouest de Panama).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ectophylla_alba</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ectophylla_alba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme leur habitat et leur nourriture sont essentiellement composés de plantes trouvées dans la forêt, la déforestation pose un grave problème pour ces petits mammifères. Leur statut n'est pas vraiment défini mais leur espèce peut alors être menacée par la déforestation.
 </t>
